--- a/xlsx/丰田卡罗拉_intext.xlsx
+++ b/xlsx/丰田卡罗拉_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>丰田卡罗拉</t>
   </si>
@@ -29,13 +29,13 @@
     <t>丰田汽车</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_丰田卡罗拉</t>
+    <t>政策_政策_混合动力车辆_丰田卡罗拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%A6</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Sentra</t>
   </si>
   <si>
-    <t>日產Sentra</t>
+    <t>日产Sentra</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E4%BA%8B%E5%BE%973</t>
   </si>
   <si>
-    <t>萬事得3</t>
+    <t>万事得3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%943</t>
   </si>
   <si>
-    <t>馬自達3</t>
+    <t>马自达3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Tiida</t>
   </si>
   <si>
-    <t>日產Tiida</t>
+    <t>日产Tiida</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8Impreza</t>
   </si>
   <si>
-    <t>速霸陸Impreza</t>
+    <t>速霸陆Impreza</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1Lancer</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維多利亞州</t>
+    <t>维多利亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E7%99%BC%E5%B1%95%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已發展國家</t>
+    <t>已发展国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0AE86</t>
   </si>
   <si>
-    <t>豐田AE86</t>
+    <t>丰田AE86</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%99%BC%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>大發汽車</t>
+    <t>大发汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E5%85%AC%E5%8F%B8</t>
@@ -287,25 +287,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E9%96%80</t>
   </si>
   <si>
-    <t>汽門</t>
+    <t>汽门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>雪佛蘭</t>
+    <t>雪佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AE86</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%84%AA%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>吉優汽車</t>
+    <t>吉优汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E9%A1%BF%E6%B1%BD%E8%BD%A6</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F%E6%96%B0%E8%BB%8A%E5%AE%89%E5%85%A8%E8%A9%95%E9%91%91%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>歐盟新車安全評鑑協會</t>
+    <t>欧盟新车安全评鑑协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%BA%BA</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E6%B3%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>和泰汽車</t>
+    <t>和泰汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -377,25 +374,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%91%9E%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>國瑞汽車</t>
+    <t>国瑞汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0ZZ%E7%B3%BB%E5%88%97%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>豐田ZZ系列引擎</t>
+    <t>丰田ZZ系列引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中東地區</t>
+    <t>中东地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5</t>
@@ -2072,7 +2066,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -2098,10 +2092,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2127,10 +2121,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2156,10 +2150,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2185,10 +2179,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2214,10 +2208,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2243,10 +2237,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2272,10 +2266,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2301,10 +2295,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2330,10 +2324,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -2359,10 +2353,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2388,10 +2382,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2417,10 +2411,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -2446,10 +2440,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2475,10 +2469,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2504,10 +2498,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2533,10 +2527,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2562,10 +2556,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2591,10 +2585,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -2620,10 +2614,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -2649,10 +2643,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2678,10 +2672,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2707,10 +2701,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2736,10 +2730,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
